--- a/inst/loadExample.xlsx
+++ b/inst/loadExample.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>Species</t>
   </si>
@@ -86,25 +86,10 @@
     <t>carb</t>
   </si>
   <si>
-    <t>Sum of Sepal.Length</t>
-  </si>
-  <si>
-    <t>Sum of Sepal.Width</t>
-  </si>
-  <si>
-    <t>Sum of Petal.Length</t>
-  </si>
-  <si>
-    <t>Sum of Petal.Width</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>http://cran.r-project.org/</t>
   </si>
   <si>
     <r>
@@ -146,23 +131,51 @@
   <si>
     <t>Petal Width</t>
   </si>
+  <si>
+    <t>IrisSample!A1</t>
+  </si>
+  <si>
+    <t>Irrational_number</t>
+  </si>
+  <si>
+    <t>Decimal_fractions</t>
+  </si>
+  <si>
+    <t>IrisSample!A2</t>
+  </si>
+  <si>
+    <t>Sum of Sepal Length</t>
+  </si>
+  <si>
+    <t>Sum of Sepal Width</t>
+  </si>
+  <si>
+    <t>Sum of Petal Length</t>
+  </si>
+  <si>
+    <t>Sum of Petal Width</t>
+  </si>
+  <si>
+    <t>Average of mpg</t>
+  </si>
+  <si>
+    <t>Max of wt</t>
+  </si>
+  <si>
+    <t>Min of wt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -388,18 +401,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -414,8 +423,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -761,11 +770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191519824"/>
-        <c:axId val="191520384"/>
+        <c:axId val="179402928"/>
+        <c:axId val="179403488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191519824"/>
+        <c:axId val="179402928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,12 +830,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191520384"/>
+        <c:crossAx val="179403488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191520384"/>
+        <c:axId val="179403488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191519824"/>
+        <c:crossAx val="179402928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -946,7 +955,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[loadExample.xlsx]mtCars Pivot!PivotTable1</c:name>
+    <c:name>[loadExample.xlsx]mtCars Pivot!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -971,7 +980,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -986,7 +995,22 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1013,7 +1037,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Sepal.Length</c:v>
+                  <c:v>Average of mpg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1034,13 +1058,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>setosa</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>versicolor</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>virginica</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1052,13 +1076,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.900000000000002</c:v>
+                  <c:v>26.890000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.5</c:v>
+                  <c:v>20.016666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.6</c:v>
+                  <c:v>15.161538461538463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,7 +1097,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Sepal.Width</c:v>
+                  <c:v>Min of wt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1094,13 +1118,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>setosa</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>versicolor</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>virginica</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1112,13 +1136,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14.100000000000001</c:v>
+                  <c:v>1.5129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>3.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,7 +1157,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Petal.Length</c:v>
+                  <c:v>Max of wt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1154,13 +1178,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>setosa</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>versicolor</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>virginica</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1172,13 +1196,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.5</c:v>
+                  <c:v>3.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.299999999999997</c:v>
+                  <c:v>5.4240000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,11 +1218,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="191524304"/>
-        <c:axId val="191524864"/>
+        <c:axId val="179407408"/>
+        <c:axId val="179407968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191524304"/>
+        <c:axId val="179407408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191524864"/>
+        <c:crossAx val="179407968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191524864"/>
+        <c:axId val="179407968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191524304"/>
+        <c:crossAx val="179407408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,6 +1338,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1392,6 +1417,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1947,6 +2012,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1981,22 +2549,22 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Species"/>
+            <xdr:cNvPr id="3" name="Species"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -2020,7 +2588,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4572000" y="1676400"/>
+              <a:off x="4314825" y="1857375"/>
               <a:ext cx="1828800" cy="2524125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2225,19 +2793,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2256,21 +2824,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alex" refreshedDate="42029.612519907409" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="50">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alex" refreshedDate="42722.61292013889" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="50">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E51" sheet="IrisSample"/>
+    <worksheetSource name="Table2"/>
   </cacheSource>
   <cacheFields count="5">
-    <cacheField name="Sepal.Length" numFmtId="0">
+    <cacheField name="Sepal Length" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.4000000000000004" maxValue="7.9"/>
     </cacheField>
-    <cacheField name="Sepal.Width" numFmtId="0">
+    <cacheField name="Sepal Width" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2" maxValue="4.4000000000000004"/>
     </cacheField>
-    <cacheField name="Petal.Length" numFmtId="0">
+    <cacheField name="Petal Length" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="6.7"/>
     </cacheField>
-    <cacheField name="Petal.Width" numFmtId="0">
+    <cacheField name="Petal Width" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="2.5"/>
     </cacheField>
     <cacheField name="Species" numFmtId="0">
@@ -2283,36 +2851,58 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1"/>
+      <x14:pivotCacheDefinition pivotCacheId="2"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alex" refreshedDate="42029.652971759257" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alex" refreshedDate="42722.614035763887" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E16" sheet="IrisSample"/>
+    <worksheetSource name="Table3"/>
   </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Sepal.Length" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.4000000000000004" maxValue="6.9"/>
+  <cacheFields count="11">
+    <cacheField name="mpg" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.4" maxValue="33.9"/>
     </cacheField>
-    <cacheField name="Sepal.Width" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2" maxValue="4.2"/>
+    <cacheField name="cyl" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="8" count="3">
+        <n v="6"/>
+        <n v="4"/>
+        <n v="8"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="Petal.Length" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3" maxValue="5.8"/>
+    <cacheField name="disp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="71.099999999999994" maxValue="472"/>
     </cacheField>
-    <cacheField name="Petal.Width" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="2.1"/>
+    <cacheField name="hp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52" maxValue="335"/>
     </cacheField>
-    <cacheField name="Species" numFmtId="0">
-      <sharedItems count="3">
-        <s v="virginica"/>
-        <s v="setosa"/>
-        <s v="versicolor"/>
+    <cacheField name="drat" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.76" maxValue="4.93"/>
+    </cacheField>
+    <cacheField name="wt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5129999999999999" maxValue="5.4240000000000004"/>
+    </cacheField>
+    <cacheField name="qsec" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.5" maxValue="22.9"/>
+    </cacheField>
+    <cacheField name="vs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="am" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="gear" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5" count="3">
+        <n v="4"/>
+        <n v="3"/>
+        <n v="5"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="carb" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2679,117 +3269,389 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
-  <r>
-    <n v="6.4"/>
-    <n v="2.7"/>
-    <n v="5.3"/>
-    <n v="1.9"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+  <r>
+    <n v="21"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="4.4000000000000004"/>
+    <n v="160"/>
+    <n v="110"/>
+    <n v="3.9"/>
+    <n v="2.62"/>
+    <n v="16.46"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="0"/>
+    <n v="160"/>
+    <n v="110"/>
+    <n v="3.9"/>
+    <n v="2.875"/>
+    <n v="17.02"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="22.8"/>
+    <x v="1"/>
+    <n v="108"/>
+    <n v="93"/>
+    <n v="3.85"/>
+    <n v="2.3199999999999998"/>
+    <n v="18.61"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="21.4"/>
+    <x v="0"/>
+    <n v="258"/>
+    <n v="110"/>
+    <n v="3.08"/>
+    <n v="3.2149999999999999"/>
+    <n v="19.440000000000001"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="18.7"/>
+    <x v="2"/>
+    <n v="360"/>
+    <n v="175"/>
+    <n v="3.15"/>
+    <n v="3.44"/>
+    <n v="17.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="22.8"/>
+    <x v="1"/>
+    <n v="140.80000000000001"/>
+    <n v="95"/>
+    <n v="3.92"/>
+    <n v="3.15"/>
+    <n v="22.9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="19.2"/>
+    <x v="0"/>
+    <n v="167.6"/>
+    <n v="123"/>
+    <n v="3.92"/>
+    <n v="3.44"/>
+    <n v="18.3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="17.8"/>
+    <x v="0"/>
+    <n v="167.6"/>
+    <n v="123"/>
+    <n v="3.92"/>
+    <n v="3.44"/>
+    <n v="18.899999999999999"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="16.399999999999999"/>
+    <x v="2"/>
+    <n v="275.8"/>
+    <n v="180"/>
+    <n v="3.07"/>
+    <n v="4.07"/>
+    <n v="17.399999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
     <n v="3"/>
-    <n v="1.3"/>
-    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="17.3"/>
+    <x v="2"/>
+    <n v="275.8"/>
+    <n v="180"/>
+    <n v="3.07"/>
+    <n v="3.73"/>
+    <n v="17.600000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
     <x v="1"/>
-  </r>
-  <r>
-    <n v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="15.2"/>
+    <x v="2"/>
+    <n v="275.8"/>
+    <n v="180"/>
+    <n v="3.07"/>
+    <n v="3.78"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="10.4"/>
+    <x v="2"/>
+    <n v="472"/>
+    <n v="205"/>
+    <n v="2.93"/>
+    <n v="5.25"/>
+    <n v="17.98"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="10.4"/>
+    <x v="2"/>
+    <n v="460"/>
+    <n v="215"/>
+    <n v="3"/>
+    <n v="5.4240000000000004"/>
+    <n v="17.82"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="14.7"/>
+    <x v="2"/>
+    <n v="440"/>
+    <n v="230"/>
+    <n v="3.23"/>
+    <n v="5.3449999999999998"/>
+    <n v="17.420000000000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="32.4"/>
+    <x v="1"/>
+    <n v="78.7"/>
+    <n v="66"/>
+    <n v="4.08"/>
     <n v="2.2000000000000002"/>
-    <n v="5"/>
-    <n v="1.5"/>
+    <n v="19.47"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="6.4"/>
-    <n v="3.1"/>
-    <n v="5.5"/>
-    <n v="1.8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="30.4"/>
+    <x v="1"/>
+    <n v="75.7"/>
+    <n v="52"/>
+    <n v="4.93"/>
+    <n v="1.615"/>
+    <n v="18.52"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="6.9"/>
-    <n v="3.1"/>
-    <n v="4.9000000000000004"/>
-    <n v="1.5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="33.9"/>
+    <x v="1"/>
+    <n v="71.099999999999994"/>
+    <n v="65"/>
+    <n v="4.22"/>
+    <n v="1.835"/>
+    <n v="19.899999999999999"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="21.5"/>
+    <x v="1"/>
+    <n v="120.1"/>
+    <n v="97"/>
+    <n v="3.7"/>
+    <n v="2.4649999999999999"/>
+    <n v="20.010000000000002"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="15.5"/>
     <x v="2"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <n v="3.4"/>
-    <n v="4.5"/>
-    <n v="1.6"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="2.76"/>
+    <n v="3.52"/>
+    <n v="16.87"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="15.2"/>
     <x v="2"/>
-  </r>
-  <r>
-    <n v="6.5"/>
-    <n v="3.2"/>
-    <n v="5.0999999999999996"/>
+    <n v="304"/>
+    <n v="150"/>
+    <n v="3.15"/>
+    <n v="3.4350000000000001"/>
+    <n v="17.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
     <n v="2"/>
+  </r>
+  <r>
+    <n v="13.3"/>
+    <x v="2"/>
+    <n v="350"/>
+    <n v="245"/>
+    <n v="3.73"/>
+    <n v="3.84"/>
+    <n v="15.41"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="19.2"/>
+    <x v="2"/>
+    <n v="400"/>
+    <n v="175"/>
+    <n v="3.08"/>
+    <n v="3.8450000000000002"/>
+    <n v="17.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="27.3"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="66"/>
+    <n v="4.08"/>
+    <n v="1.9350000000000001"/>
+    <n v="18.899999999999999"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="6.8"/>
-    <n v="3"/>
-    <n v="5.5"/>
-    <n v="2.1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="6.7"/>
-    <n v="2.5"/>
-    <n v="5.8"/>
-    <n v="1.8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="5.6"/>
-    <n v="3"/>
-    <n v="4.5"/>
-    <n v="1.5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="4.7"/>
-    <n v="3.2"/>
-    <n v="1.3"/>
-    <n v="0.2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
     <x v="1"/>
-  </r>
-  <r>
-    <n v="5.8"/>
-    <n v="2.7"/>
-    <n v="5.0999999999999996"/>
-    <n v="1.9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="5.5"/>
-    <n v="4.2"/>
-    <n v="1.4"/>
-    <n v="0.2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3.5"/>
+    <n v="120.3"/>
+    <n v="91"/>
+    <n v="4.43"/>
+    <n v="2.14"/>
+    <n v="16.7"/>
+    <n v="0"/>
     <n v="1"/>
     <x v="2"/>
-  </r>
-  <r>
-    <n v="5.3"/>
-    <n v="3.7"/>
-    <n v="1.5"/>
-    <n v="0.2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="30.4"/>
     <x v="1"/>
+    <n v="95.1"/>
+    <n v="113"/>
+    <n v="3.77"/>
+    <n v="1.5129999999999999"/>
+    <n v="16.899999999999999"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="15.8"/>
+    <x v="2"/>
+    <n v="351"/>
+    <n v="264"/>
+    <n v="4.22"/>
+    <n v="3.17"/>
+    <n v="14.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="19.7"/>
+    <x v="0"/>
+    <n v="145"/>
+    <n v="175"/>
+    <n v="3.62"/>
+    <n v="2.77"/>
+    <n v="15.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="301"/>
+    <n v="335"/>
+    <n v="3.54"/>
+    <n v="3.57"/>
+    <n v="14.6"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="21.4"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="109"/>
+    <n v="4.1100000000000003"/>
+    <n v="2.78"/>
+    <n v="18.600000000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G2:K6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -2840,12 +3702,12 @@
     </i>
   </colItems>
   <dataFields count="4">
-    <dataField name="Sum of Sepal.Length" fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sepal.Width" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Petal.Width" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Petal.Length" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sepal Length" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sepal Width" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Petal Length" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Petal Width" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2855,24 +3717,37 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+  <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -2903,9 +3778,9 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Sum of Sepal.Length" fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sepal.Width" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Petal.Length" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Average of mpg" fld="0" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Min of wt" fld="5" subtotal="min" baseField="1" baseItem="0"/>
+    <dataField name="Max of wt" fld="5" subtotal="max" baseField="1" baseItem="0"/>
   </dataFields>
   <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
@@ -2917,7 +3792,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2926,7 +3801,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2948,10 +3823,10 @@
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Species" sourceName="Species">
   <pivotTables>
-    <pivotTable tabId="1" name="PivotTable3"/>
+    <pivotTable tabId="1" name="PivotTable1"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1">
+    <tabular pivotCacheId="2">
       <items count="3">
         <i x="1" s="1"/>
         <i x="2" s="1"/>
@@ -2964,7 +3839,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Species" cache="Slicer_Species" caption="Species" style="SlicerStyleOther2" rowHeight="241300"/>
+  <slicer name="Species" cache="Slicer_Species" caption="Species" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -3293,27 +4168,27 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="A1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3333,20 +4208,20 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>19</v>
+      <c r="G2" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3365,20 +4240,20 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="22">
         <v>95.5</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="22">
         <v>67.2</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="22">
+        <v>27.299999999999997</v>
+      </c>
+      <c r="K3" s="22">
         <v>4.1000000000000005</v>
-      </c>
-      <c r="K3" s="24">
-        <v>27.299999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3397,20 +4272,20 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <v>82.300000000000011</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <v>39.299999999999997</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
+        <v>60.300000000000004</v>
+      </c>
+      <c r="K4" s="22">
         <v>19.400000000000002</v>
-      </c>
-      <c r="K4" s="24">
-        <v>60.300000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3429,20 +4304,20 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <v>117.00000000000003</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <v>51.499999999999993</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="22">
+        <v>97.7</v>
+      </c>
+      <c r="K5" s="22">
         <v>34.4</v>
-      </c>
-      <c r="K5" s="24">
-        <v>97.7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3461,20 +4336,20 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="24">
+      <c r="G6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="22">
         <v>294.80000000000007</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>158</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
+        <v>185.3</v>
+      </c>
+      <c r="K6" s="22">
         <v>57.900000000000006</v>
-      </c>
-      <c r="K6" s="24">
-        <v>185.3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3561,7 +4436,7 @@
       <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3579,7 +4454,7 @@
       <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3597,7 +4472,7 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4264,11 +5139,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q30"/>
+  <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4276,396 +5149,420 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="I2">
         <f t="shared" ref="I2:N5" ca="1" si="0">RAND()</f>
-        <v>8.7531962467226054E-2</v>
+        <v>0.1200098697628279</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62917301559126704</v>
+        <v>0.99941505304699063</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9284323120888478</v>
+        <v>0.33238329441786285</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25531324293453683</v>
+        <v>0.50935374906320963</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37533998259847279</v>
+        <v>0.43374151260716243</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95712694339681037</v>
+        <v>0.78480884247246463</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14290232312427076</v>
+        <v>6.1779982427113578E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93326491419763846</v>
+        <v>0.11359390354749566</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30414849858785409</v>
+        <v>0.45161976460862163</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52022231509252026</v>
+        <v>0.5510910412790978</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96120707502078695</v>
+        <v>0.88608414121684409</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18003828935577837</v>
+        <v>0.74070843448639578</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83669213684409327</v>
+        <v>0.85629450806630725</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95736487374263202</v>
+        <v>0.90230316078515482</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19795182492730812</v>
+        <v>0.4834637563117079</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17146390471471906</v>
+        <v>0.86608230987280455</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93239180507298869</v>
+        <v>0.280284896790718</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4831985021545986E-2</v>
+        <v>0.82991252940768745</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78731913025155398</v>
+        <v>0.74472631567722714</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85066460882655714</v>
+        <v>9.9524787443150964E-2</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13432198785950555</v>
+        <v>0.62328821787698097</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74873099481309313</v>
+        <v>0.30523697689060403</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99662805892583983</v>
+        <v>0.32246177709537016</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1049591812333039E-2</v>
+        <v>0.7046349837130188</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="I7" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="I7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="18"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="34"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D29" s="34"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D30" s="34"/>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F7"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:N5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -4673,11 +5570,17 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3" location="Decimal_fractions"/>
+    <hyperlink ref="B29" r:id="rId4" location="Decimal_fractions"/>
+    <hyperlink ref="B30" r:id="rId5" location="Decimal_fractions"/>
+    <hyperlink ref="B33" location="IrisSample!A1" display="IrisSample!A1"/>
+    <hyperlink ref="B34" location="IrisSample!A2" display="IrisSample!A2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5754,93 +6657,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
+      <c r="A1" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>4</v>
+      </c>
+      <c r="B2" s="22">
+        <v>26.890000000000004</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="D2" s="22">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>6</v>
+      </c>
+      <c r="B3" s="22">
+        <v>20.016666666666666</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2.62</v>
+      </c>
+      <c r="D3" s="22">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22">
+        <v>15.161538461538463</v>
+      </c>
+      <c r="C4" s="22">
+        <v>3.17</v>
+      </c>
+      <c r="D4" s="22">
+        <v>5.4240000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>19.900000000000002</v>
-      </c>
-      <c r="C2" s="1">
-        <v>14.100000000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44.6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>88</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1">
-        <v>60.199999999999996</v>
+      <c r="B5" s="22">
+        <v>20.210344827586205</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="D5" s="22">
+        <v>5.4240000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="4"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
